--- a/ig/nr-init/StructureDefinition-EyeColor.xlsx
+++ b/ig/nr-init/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T14:30:07+00:00</t>
+    <t>2023-11-21T14:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-init/StructureDefinition-EyeColor.xlsx
+++ b/ig/nr-init/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T14:34:54+00:00</t>
+    <t>2023-11-21T14:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-init/StructureDefinition-EyeColor.xlsx
+++ b/ig/nr-init/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T14:37:19+00:00</t>
+    <t>2023-11-21T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-init/StructureDefinition-EyeColor.xlsx
+++ b/ig/nr-init/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T14:47:39+00:00</t>
+    <t>2023-11-21T14:48:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-init/StructureDefinition-EyeColor.xlsx
+++ b/ig/nr-init/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T14:48:53+00:00</t>
+    <t>2023-11-21T14:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
